--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/119.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/119.xlsx
@@ -479,13 +479,13 @@
         <v>-8.962801420687368</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.03131169997944</v>
+        <v>-13.92022351036739</v>
       </c>
       <c r="F2" t="n">
-        <v>4.325301375981949</v>
+        <v>4.222264952617565</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.517687926083008</v>
+        <v>-9.579038457199337</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.35735408132366</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.60992602406952</v>
+        <v>-14.50080167988373</v>
       </c>
       <c r="F3" t="n">
-        <v>4.552793230159781</v>
+        <v>4.442137086541512</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.189699555292087</v>
+        <v>-9.249426640856042</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.704069158122381</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.2360130382637</v>
+        <v>-15.12764804764274</v>
       </c>
       <c r="F4" t="n">
-        <v>4.633939323172799</v>
+        <v>4.515689643906329</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.181543050621691</v>
+        <v>-9.226227080220502</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.070262405618469</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.85056573365432</v>
+        <v>-15.7415854047998</v>
       </c>
       <c r="F5" t="n">
-        <v>4.612755977174887</v>
+        <v>4.494872882387985</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.838642546894045</v>
+        <v>-8.879726193211381</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.463668735787577</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.49469394116441</v>
+        <v>-16.3872585040452</v>
       </c>
       <c r="F6" t="n">
-        <v>4.600580135532081</v>
+        <v>4.483168363647482</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.403244923589602</v>
+        <v>-8.462605424673988</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.908653633904678</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.02921338928356</v>
+        <v>-16.93407162453273</v>
       </c>
       <c r="F7" t="n">
-        <v>4.861064592871063</v>
+        <v>4.730429595116321</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.402721231475933</v>
+        <v>-8.449120352747011</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.4080755341255</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.04226959857063</v>
+        <v>-17.93373440801273</v>
       </c>
       <c r="F8" t="n">
-        <v>5.014977705078395</v>
+        <v>4.888794090289839</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.54119533527899</v>
+        <v>-7.602009081978808</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.976705914914</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.66372193755885</v>
+        <v>-18.5609473602513</v>
       </c>
       <c r="F9" t="n">
-        <v>4.967400276551563</v>
+        <v>4.842866291921064</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.139523484094835</v>
+        <v>-7.197548570289365</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.612398465300319</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.40829429247065</v>
+        <v>-19.30042680935767</v>
       </c>
       <c r="F10" t="n">
-        <v>5.111179946359398</v>
+        <v>4.986645961728899</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.266856038179584</v>
+        <v>-6.330445353081847</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.318901681876267</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.25873100816065</v>
+        <v>-20.15395330851832</v>
       </c>
       <c r="F11" t="n">
-        <v>5.299394892012052</v>
+        <v>5.173630230914432</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.021100421537544</v>
+        <v>-6.090109949816283</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.097901235355631</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.23031080204514</v>
+        <v>-21.1196939353354</v>
       </c>
       <c r="F12" t="n">
-        <v>5.645188794667721</v>
+        <v>5.515627365746</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.42283455088203</v>
+        <v>-5.479812252849221</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.941893688564532</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.89918346192609</v>
+        <v>-21.79157782486994</v>
       </c>
       <c r="F13" t="n">
-        <v>5.775352469520161</v>
+        <v>5.647440670756498</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.028939527585859</v>
+        <v>-5.072157219266397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.850251407360434</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.70324724095069</v>
+        <v>-22.59506554256951</v>
       </c>
       <c r="F14" t="n">
-        <v>6.067572668947487</v>
+        <v>5.942384069174903</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.07254680499777</v>
+        <v>-4.121381094597408</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.811937523498329</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.71718063452817</v>
+        <v>-23.60359181507335</v>
       </c>
       <c r="F15" t="n">
-        <v>6.29302212388201</v>
+        <v>6.16073749596921</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.640762657277644</v>
+        <v>-3.687750932176599</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.814809857389718</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.36086370374163</v>
+        <v>-24.25498625066059</v>
       </c>
       <c r="F16" t="n">
-        <v>6.581393186273869</v>
+        <v>6.447825512682579</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.458661817052076</v>
+        <v>-3.486993560401571</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.850837466030851</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.22965582801573</v>
+        <v>-25.12558511272685</v>
       </c>
       <c r="F17" t="n">
-        <v>6.931926502558242</v>
+        <v>6.797625660007816</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.357929638987836</v>
+        <v>-3.376730185868555</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.908934976678046</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.95029545333286</v>
+        <v>-25.85379208908649</v>
       </c>
       <c r="F18" t="n">
-        <v>6.815195530421413</v>
+        <v>6.684717640300771</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.986618838093643</v>
+        <v>-3.004293446929973</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.983016474485665</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.57612062147021</v>
+        <v>-26.48713223905499</v>
       </c>
       <c r="F19" t="n">
-        <v>6.916320477570905</v>
+        <v>6.794823907199687</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.57791642028348</v>
+        <v>-2.596887167101141</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.068204509026725</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.07949348112889</v>
+        <v>-26.99025634495968</v>
       </c>
       <c r="F20" t="n">
-        <v>7.148001868658089</v>
+        <v>7.016398040493059</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.338013063011692</v>
+        <v>-2.358751270712986</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.155972931229403</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.42600746044085</v>
+        <v>-27.34182395316855</v>
       </c>
       <c r="F21" t="n">
-        <v>7.107834683539674</v>
+        <v>6.979503931085075</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.11241959274591</v>
+        <v>-2.136155937797959</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.240589913451831</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.95070768142871</v>
+        <v>-27.86490072860403</v>
       </c>
       <c r="F22" t="n">
-        <v>7.15543829667219</v>
+        <v>7.029647450968886</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.16620277281972</v>
+        <v>-2.176205292190799</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.312833849448455</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.16056420367874</v>
+        <v>-28.07903843388331</v>
       </c>
       <c r="F23" t="n">
-        <v>7.167640322920678</v>
+        <v>7.042163692485576</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.252193017884177</v>
+        <v>-2.258490415551047</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.36246027734554</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.56506399227671</v>
+        <v>-28.48620905226099</v>
       </c>
       <c r="F24" t="n">
-        <v>7.388743133311748</v>
+        <v>7.259312627418445</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.579827896498372</v>
+        <v>-2.579173281356286</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.383179948113466</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.45072891155991</v>
+        <v>-28.38212524466926</v>
       </c>
       <c r="F25" t="n">
-        <v>7.3633440657988</v>
+        <v>7.229278884699525</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.486401223419815</v>
+        <v>-2.479488487519383</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.367745735898331</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.94501571304644</v>
+        <v>-28.8626389435663</v>
       </c>
       <c r="F26" t="n">
-        <v>7.367219387439951</v>
+        <v>7.240276419086575</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.583389002871322</v>
+        <v>-2.573478129620135</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.316190911067141</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.7957765529536</v>
+        <v>-28.72091476530461</v>
       </c>
       <c r="F27" t="n">
-        <v>7.573501711014186</v>
+        <v>7.434147239566855</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.658119867491894</v>
+        <v>-2.6484577479947</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.230730003814066</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.0365309099101</v>
+        <v>-28.9639864598641</v>
       </c>
       <c r="F28" t="n">
-        <v>7.371723139617504</v>
+        <v>7.238522050505783</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.809479980645089</v>
+        <v>-2.800341553261564</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.116618173581525</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.4155007079667</v>
+        <v>-29.32685272542538</v>
       </c>
       <c r="F29" t="n">
-        <v>7.430821794645056</v>
+        <v>7.301391288751752</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.933896134550012</v>
+        <v>-2.922021415872566</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.98362096436629</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.10713769913553</v>
+        <v>-29.01814931672032</v>
       </c>
       <c r="F30" t="n">
-        <v>7.27285006855679</v>
+        <v>7.142345993830464</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.899960885584258</v>
+        <v>-2.894619226024834</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.838192369398064</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.01673534801341</v>
+        <v>-28.92984173405288</v>
       </c>
       <c r="F31" t="n">
-        <v>7.226477131891396</v>
+        <v>7.09317130435694</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.805735582032356</v>
+        <v>-2.799307261337068</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.68943425687429</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.90403680515183</v>
+        <v>-28.81046611674202</v>
       </c>
       <c r="F32" t="n">
-        <v>7.303224211149594</v>
+        <v>7.174972012512045</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.326089158476758</v>
+        <v>-3.316832900367658</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.543409604452424</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.79383889213302</v>
+        <v>-28.70496834044339</v>
       </c>
       <c r="F33" t="n">
-        <v>7.554779717950519</v>
+        <v>7.417991337860165</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.632867998664083</v>
+        <v>-3.620600510901386</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.402315170790838</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.39270382536538</v>
+        <v>-28.30594113443326</v>
       </c>
       <c r="F34" t="n">
-        <v>7.4921461411557</v>
+        <v>7.368947571415059</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.827223234349507</v>
+        <v>-3.821829205578716</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.268567551060952</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.31447731588607</v>
+        <v>-28.21275012280585</v>
       </c>
       <c r="F35" t="n">
-        <v>7.439907852817214</v>
+        <v>7.313148176703622</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.092054336231942</v>
+        <v>-4.084735738943417</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.137311996718393</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.00976705954773</v>
+        <v>-27.90637714400662</v>
       </c>
       <c r="F36" t="n">
-        <v>7.616496833546415</v>
+        <v>7.484369313267716</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.302500012109847</v>
+        <v>-4.292484400435926</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.005162839019415</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.57101780671581</v>
+        <v>-27.46993213647484</v>
       </c>
       <c r="F37" t="n">
-        <v>7.300710489003983</v>
+        <v>7.182513178948879</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.692022206256881</v>
+        <v>-4.6835253017126</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.863960027273674</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.38184712295571</v>
+        <v>-27.27509248558428</v>
       </c>
       <c r="F38" t="n">
-        <v>7.687483299554254</v>
+        <v>7.562085222936202</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.702626971558678</v>
+        <v>-4.695557128024147</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.701442673551268</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.04321470995447</v>
+        <v>-26.94099000936627</v>
       </c>
       <c r="F39" t="n">
-        <v>7.571040358079942</v>
+        <v>7.450172218245127</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.875785768943348</v>
+        <v>-4.866045095629103</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.511275982454023</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.71495140080387</v>
+        <v>-26.59794549030736</v>
       </c>
       <c r="F40" t="n">
-        <v>7.678632902833247</v>
+        <v>7.555984209811957</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.985852758933738</v>
+        <v>-4.961579629465178</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.283273064697654</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.45715086554744</v>
+        <v>-26.32685626766658</v>
       </c>
       <c r="F41" t="n">
-        <v>7.775070805565401</v>
+        <v>7.656323618790946</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.355893606452284</v>
+        <v>-5.332968984176421</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.015672315546769</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.72764775120647</v>
+        <v>-25.60413496619762</v>
       </c>
       <c r="F42" t="n">
-        <v>7.744461001521445</v>
+        <v>7.626289876072026</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.436463638140267</v>
+        <v>-5.412439262425699</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.709767719055018</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.22737776732127</v>
+        <v>-25.10732135026264</v>
       </c>
       <c r="F43" t="n">
-        <v>7.692484559239793</v>
+        <v>7.575936879342748</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.462059090195841</v>
+        <v>-5.43891189877167</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.367686765187403</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.94391631849506</v>
+        <v>-24.8217782252846</v>
       </c>
       <c r="F44" t="n">
-        <v>7.893660884705756</v>
+        <v>7.775332651622236</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.497683246228178</v>
+        <v>-5.477586561366128</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.001853133160961</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.40244485756695</v>
+        <v>-24.27995327217976</v>
       </c>
       <c r="F45" t="n">
-        <v>7.825083402420795</v>
+        <v>7.705105539179217</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.556166563022168</v>
+        <v>-5.535847309011809</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.620617110902999</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.03747073124815</v>
+        <v>-23.9085901020742</v>
       </c>
       <c r="F46" t="n">
-        <v>7.715605566058281</v>
+        <v>7.597434440608862</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.437340822430662</v>
+        <v>-5.426133811198144</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2367597325239044</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.56744396692735</v>
+        <v>-23.43811819945677</v>
       </c>
       <c r="F47" t="n">
-        <v>7.89976189783</v>
+        <v>7.780438649730509</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.580086200314001</v>
+        <v>-5.564977682834649</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1358505329313183</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.8011776662068</v>
+        <v>-22.68358260208242</v>
       </c>
       <c r="F48" t="n">
-        <v>7.926627303261222</v>
+        <v>7.80206713402504</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.841945349451365</v>
+        <v>-5.824126725283775</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4882769506274818</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.51323864980872</v>
+        <v>-22.38969968019419</v>
       </c>
       <c r="F49" t="n">
-        <v>7.985123712358054</v>
+        <v>7.861008681418491</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.657186771748926</v>
+        <v>-5.651138127836049</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8068937680257608</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.04843571432176</v>
+        <v>-21.91668787082547</v>
       </c>
       <c r="F50" t="n">
-        <v>7.911990108684172</v>
+        <v>7.785754124684249</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.703585893020003</v>
+        <v>-5.700849601726083</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.084256339512453</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.47154957420679</v>
+        <v>-21.35159789557089</v>
       </c>
       <c r="F51" t="n">
-        <v>7.96878451841158</v>
+        <v>7.850639577567844</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.815826205282121</v>
+        <v>-5.815656005345178</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.314157544727512</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.13785295937687</v>
+        <v>-21.0138295745572</v>
       </c>
       <c r="F52" t="n">
-        <v>7.686174069270082</v>
+        <v>7.575413187229079</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.944366434582188</v>
+        <v>-5.945453095718051</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.49011902095597</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.40688350711762</v>
+        <v>-20.28301722993205</v>
       </c>
       <c r="F53" t="n">
-        <v>7.8739700612318</v>
+        <v>7.752892444551517</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.980802313390711</v>
+        <v>-5.984926388785855</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.61180304493896</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.46346525664568</v>
+        <v>-19.35547994280713</v>
       </c>
       <c r="F54" t="n">
-        <v>7.786827693517271</v>
+        <v>7.669730136900873</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.001370321155063</v>
+        <v>-6.009854133396502</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.678822074477331</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.07379904716739</v>
+        <v>-18.96587919484304</v>
       </c>
       <c r="F55" t="n">
-        <v>7.741214110416697</v>
+        <v>7.624928276576487</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.463358411531051</v>
+        <v>-6.462690704086122</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.69418370192</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.95290472272689</v>
+        <v>-18.84566567015031</v>
       </c>
       <c r="F56" t="n">
-        <v>7.471879256356709</v>
+        <v>7.358107144662109</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.328298215415805</v>
+        <v>-6.337881781095948</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.662804347656618</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.6645860295464</v>
+        <v>-18.55167800983936</v>
       </c>
       <c r="F57" t="n">
-        <v>7.478477776988939</v>
+        <v>7.366826618354699</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.226793591483903</v>
+        <v>-6.242451985682607</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.589284995511525</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.04431199781395</v>
+        <v>-17.94800501811021</v>
       </c>
       <c r="F58" t="n">
-        <v>7.209588061225569</v>
+        <v>7.106001761141832</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.418163782121412</v>
+        <v>-6.430902592786412</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.478810057940568</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.5506143499553</v>
+        <v>-17.44990835649674</v>
       </c>
       <c r="F59" t="n">
-        <v>7.301941165471105</v>
+        <v>7.186807454280966</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.530665940440365</v>
+        <v>-6.541820582461515</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.336150446899413</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.26647210138131</v>
+        <v>-17.17270502842887</v>
       </c>
       <c r="F60" t="n">
-        <v>7.438729545561459</v>
+        <v>7.327523525223837</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.913380137109701</v>
+        <v>-6.915658197804161</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.166256144182601</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.91449863178435</v>
+        <v>-16.8209148510717</v>
       </c>
       <c r="F61" t="n">
-        <v>7.210137937944921</v>
+        <v>7.103906992687156</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.69348181858007</v>
+        <v>-6.70273807668917</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.9730597748399364</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.50213036917851</v>
+        <v>-16.41274921767804</v>
       </c>
       <c r="F62" t="n">
-        <v>7.210530707030173</v>
+        <v>7.104325946378092</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.671290365263344</v>
+        <v>-6.686045390565969</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.7634510061255614</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.9808341469295</v>
+        <v>-15.89506647101335</v>
       </c>
       <c r="F63" t="n">
-        <v>7.106027945747516</v>
+        <v>7.002991522383131</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.681698746022517</v>
+        <v>-6.69697746343881</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.5425636675327348</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.77342588531087</v>
+        <v>-15.69159899255009</v>
       </c>
       <c r="F64" t="n">
-        <v>6.909774326150042</v>
+        <v>6.811424947202996</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.426595225151484</v>
+        <v>-6.447870217269289</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3164099789139405</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.53006616008887</v>
+        <v>-15.44804288278546</v>
       </c>
       <c r="F65" t="n">
-        <v>6.871937570937454</v>
+        <v>6.77057696233681</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.519236360059537</v>
+        <v>-6.535431538674753</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.09293930162330934</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.12667921723245</v>
+        <v>-15.05137229128684</v>
       </c>
       <c r="F66" t="n">
-        <v>6.884322889425726</v>
+        <v>6.780317635651055</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.600735945249282</v>
+        <v>-6.618803323170864</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1222862187491737</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.00197503266501</v>
+        <v>-14.93292622747775</v>
       </c>
       <c r="F67" t="n">
-        <v>6.837112045378462</v>
+        <v>6.733473376083358</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.572063802025902</v>
+        <v>-6.583192259441369</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3211356146948552</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.61721843675236</v>
+        <v>-14.55376004487852</v>
       </c>
       <c r="F68" t="n">
-        <v>6.542823262102144</v>
+        <v>6.442981360631141</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.419355181680009</v>
+        <v>-6.433573422566123</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.496653960134944</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.78203743722685</v>
+        <v>-14.7183564762047</v>
       </c>
       <c r="F69" t="n">
-        <v>6.528997790301281</v>
+        <v>6.427610997094955</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.325509554910517</v>
+        <v>-6.338051981032891</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6430315931135132</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.65666554521448</v>
+        <v>-14.58736798627323</v>
       </c>
       <c r="F70" t="n">
-        <v>6.476785686568477</v>
+        <v>6.375896400870136</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.423570903195045</v>
+        <v>-6.433953099348534</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.752839941542587</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.64642736439225</v>
+        <v>-14.57146083832053</v>
       </c>
       <c r="F71" t="n">
-        <v>6.593961797001926</v>
+        <v>6.484222114582578</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.277133495910339</v>
+        <v>-6.283169047520374</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8202600575013744</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.5942938144765</v>
+        <v>-14.52604363976258</v>
       </c>
       <c r="F72" t="n">
-        <v>6.196139082853238</v>
+        <v>6.093521613179789</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.369264031007566</v>
+        <v>-6.381308949621953</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8403027943386077</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.84667413635645</v>
+        <v>-14.76493888971556</v>
       </c>
       <c r="F73" t="n">
-        <v>6.149137715651441</v>
+        <v>6.049557660237272</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.104341283005239</v>
+        <v>-6.104197267673979</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8081699390716618</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.99197251329393</v>
+        <v>-14.91182143529688</v>
       </c>
       <c r="F74" t="n">
-        <v>6.079696141378926</v>
+        <v>5.977157225522527</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.861112480811651</v>
+        <v>-5.869386816207622</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7201703335576568</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.26591585795421</v>
+        <v>-15.180318381975</v>
       </c>
       <c r="F75" t="n">
-        <v>5.78611434245606</v>
+        <v>5.693080438462755</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.663824569289681</v>
+        <v>-5.672871350553314</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5762123160169557</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.37727898592593</v>
+        <v>-15.28855244956755</v>
       </c>
       <c r="F76" t="n">
-        <v>5.812377501956563</v>
+        <v>5.715861045407358</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.386791441158758</v>
+        <v>-5.403156819710915</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3738526984622559</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.56334679391254</v>
+        <v>-15.48504173061617</v>
       </c>
       <c r="F77" t="n">
-        <v>5.752493308758508</v>
+        <v>5.655296052461534</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.374838168664262</v>
+        <v>-5.388794563493541</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.115038314958697</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.98688279084238</v>
+        <v>-15.90074853044666</v>
       </c>
       <c r="F78" t="n">
-        <v>5.541523940766934</v>
+        <v>5.448751882830463</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.881441643770973</v>
+        <v>-4.905204173428706</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1962354573154681</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.22647193284596</v>
+        <v>-16.14206585642535</v>
       </c>
       <c r="F79" t="n">
-        <v>5.118590189767815</v>
+        <v>5.034249574861415</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.992595294897227</v>
+        <v>-5.011212549538162</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5579302166840451</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.85266368546288</v>
+        <v>-16.76194711907256</v>
       </c>
       <c r="F80" t="n">
-        <v>5.326103189809174</v>
+        <v>5.231655317108961</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.881755859039175</v>
+        <v>-4.902389328317735</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.9593278932443127</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.44582355801012</v>
+        <v>-17.35442619187203</v>
       </c>
       <c r="F81" t="n">
-        <v>4.976695811569188</v>
+        <v>4.889553443854659</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.832895384833853</v>
+        <v>-4.856644822188744</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.394979992142483</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.14590826786574</v>
+        <v>-18.04334316740366</v>
       </c>
       <c r="F82" t="n">
-        <v>5.168445678989108</v>
+        <v>5.081015280612061</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.739704373206447</v>
+        <v>-4.754223737057921</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.855188391614612</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.93708922089409</v>
+        <v>-18.83741751936003</v>
       </c>
       <c r="F83" t="n">
-        <v>4.982718270876382</v>
+        <v>4.899503594014371</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.659762772054868</v>
+        <v>-4.672121905937456</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.325623026019936</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.83056033602484</v>
+        <v>-19.72948775808672</v>
       </c>
       <c r="F84" t="n">
-        <v>5.057894273793573</v>
+        <v>4.966431446141275</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.539117201368362</v>
+        <v>-4.543922076511275</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.798240174575549</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.89509548008559</v>
+        <v>-20.79035705735178</v>
       </c>
       <c r="F85" t="n">
-        <v>4.784212775190131</v>
+        <v>4.691126501985459</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.268839701503769</v>
+        <v>-4.277022390779847</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.257906563873861</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.05473311198863</v>
+        <v>-21.94096100029403</v>
       </c>
       <c r="F86" t="n">
-        <v>4.702935759148696</v>
+        <v>4.616317083547836</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.051311089788491</v>
+        <v>-4.05381171963126</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.693339972570512</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.21230216004269</v>
+        <v>-23.10351821573078</v>
       </c>
       <c r="F87" t="n">
-        <v>4.597045213764815</v>
+        <v>4.513909090719855</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.965635059992235</v>
+        <v>-3.972927472675076</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.093897312226515</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.49673562263306</v>
+        <v>-24.38723160166487</v>
       </c>
       <c r="F88" t="n">
-        <v>4.418937525905974</v>
+        <v>4.328914851566266</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.132784490372551</v>
+        <v>-4.126735846459674</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.444825657613141</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.23205490278965</v>
+        <v>-26.12336260459763</v>
       </c>
       <c r="F89" t="n">
-        <v>4.447609669129354</v>
+        <v>4.356120656871372</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.161548279715824</v>
+        <v>-4.159257126718521</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.738769909134248</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.85675731623648</v>
+        <v>-27.74273645078789</v>
       </c>
       <c r="F90" t="n">
-        <v>4.141537813295482</v>
+        <v>4.057380490628867</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.245129541057403</v>
+        <v>-4.237077774809741</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>4.966241632879386</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.42812168790613</v>
+        <v>-29.31342002270977</v>
       </c>
       <c r="F91" t="n">
-        <v>3.781551854359382</v>
+        <v>3.701453145573702</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.207358247359023</v>
+        <v>-4.197106974233952</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.120133706130176</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.07099621769728</v>
+        <v>-30.95659567546628</v>
       </c>
       <c r="F92" t="n">
-        <v>3.427431247096375</v>
+        <v>3.356889919385155</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.411388694844482</v>
+        <v>-4.398139284368655</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.194348518098523</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.17633016076672</v>
+        <v>-33.0655300018172</v>
       </c>
       <c r="F93" t="n">
-        <v>3.237488117468613</v>
+        <v>3.174828356068113</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.805205164323603</v>
+        <v>-4.786234417505941</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.181280718119568</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.25807177411538</v>
+        <v>-35.13377345093603</v>
       </c>
       <c r="F94" t="n">
-        <v>3.104287028356893</v>
+        <v>3.046523788219197</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.044296798819204</v>
+        <v>-5.016907701274313</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>5.079664666184477</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.28185376278371</v>
+        <v>-37.16321131443199</v>
       </c>
       <c r="F95" t="n">
-        <v>2.72623369149921</v>
+        <v>2.672948018933385</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.350080623990558</v>
+        <v>-5.314273175718437</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.880522360429875</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.79350732454613</v>
+        <v>-39.66867221695026</v>
       </c>
       <c r="F96" t="n">
-        <v>2.393296430234117</v>
+        <v>2.345195309593615</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.725148915800326</v>
+        <v>-5.676183703172271</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.594398714019723</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.93568300781219</v>
+        <v>-41.82670267895766</v>
       </c>
       <c r="F97" t="n">
-        <v>2.121578777056934</v>
+        <v>2.086151005567223</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.260964501900808</v>
+        <v>-6.206107752993975</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.211058221471281</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.31617787970619</v>
+        <v>-44.19278292542292</v>
       </c>
       <c r="F98" t="n">
-        <v>1.519961276873937</v>
+        <v>1.489089626773147</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.504101657974502</v>
+        <v>-6.450593416260368</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.764014347879706</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.50480505345469</v>
+        <v>-46.38827046586049</v>
       </c>
       <c r="F99" t="n">
-        <v>1.261440664961215</v>
+        <v>1.235727382180065</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.639973576865935</v>
+        <v>-6.59344353256644</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.232959447771934</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.84988524616183</v>
+        <v>-48.73075838260495</v>
       </c>
       <c r="F100" t="n">
-        <v>1.064152753439245</v>
+        <v>1.036855302014246</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.896792189409234</v>
+        <v>-6.850118129778481</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.692861700676917</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.97146673705785</v>
+        <v>-50.85813976365987</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8467288801466997</v>
+        <v>0.8258073802056214</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.080385552158758</v>
+        <v>-7.031315601107969</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.06487829825857</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.55755004047548</v>
+        <v>-53.4368521005776</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3590929685037705</v>
+        <v>0.3436440511505338</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.430080961061262</v>
+        <v>-7.375407504394214</v>
       </c>
     </row>
   </sheetData>
